--- a/biology/Zoologie/Brachylophus_fasciatus/Brachylophus_fasciatus.xlsx
+++ b/biology/Zoologie/Brachylophus_fasciatus/Brachylophus_fasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachylophus fasciatus, l'Iguane des Fidji, est une espèce de sauriens de la famille des Iguanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachylophus fasciatus, l'Iguane des Fidji, est une espèce de sauriens de la famille des Iguanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux Fidji, aux Tonga, à Wallis et au Vanuatu[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux Fidji, aux Tonga, à Wallis et au Vanuatu.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un iguane diurne et arboricole dont le corps est trapu, la tête massive (surtout chez les mâles), avec des pattes aux doigts fins et longs. Le corps est vert assez clair, avec des bandes transversales vert clair tirant parfois sur le blanc.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brongniart, 1800 : Essai d'une classification naturelle des reptiles. Bulletin de la Société philomatique, vol. 2, n. 36, p. 89-91 (texte intégral).</t>
         </is>
